--- a/assets/export/student_export_template.xlsx
+++ b/assets/export/student_export_template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\git-workspace\Reservation_THXL\src\main\webapp\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\go\src\github.com\shudiwsh2009\reservation_thxl_go\assets\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>现住址</t>
   </si>
@@ -82,31 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>母亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,107 +433,89 @@
     <col min="3" max="5" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">

--- a/assets/export/student_export_template.xlsx
+++ b/assets/export/student_export_template.xlsx
@@ -133,12 +133,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H13"/>
+      <selection activeCell="A18" sqref="A18:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,9 +515,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
